--- a/outcomes/IS.xlsx
+++ b/outcomes/IS.xlsx
@@ -1,248 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Dropbox (University of Michigan)\carlos\Work\Nhats\SkipNHATS\outcomes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5EFA5-B66E-4966-89DC-1B210EE5E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ISsection" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SummaryIS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ISsection" sheetId="1" r:id="rId1"/>
+    <sheet name="SummaryIS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t xml:space="preserve">fldSectionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionnaire.ITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fldResponsesID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipbyResID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdditionalSkipByResID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipbyResIDPattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simpleBoxSkip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileNotinSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1resptype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op1proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or IS2_1=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2A_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1reasnprx6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX IS2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1dgender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX IS4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1dbirthmth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1dbirthyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS6_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS7_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1dintvwrage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS7_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1d2intvrage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX IS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS8C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS9_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1prxyrelat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS9_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op1relatnshp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS10_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1prxygendr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS10_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op1gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX IS11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is1famrrutin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of variables available in public file in HC section: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipped only by r1dresid: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipped by r1dresid and prior variables: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining box: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining others: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+  <si>
+    <t>fldSectionID</t>
+  </si>
+  <si>
+    <t>Questionnaire.ITEM</t>
+  </si>
+  <si>
+    <t>Variable.name</t>
+  </si>
+  <si>
+    <t>fldResponsesID</t>
+  </si>
+  <si>
+    <t>skipbyResID</t>
+  </si>
+  <si>
+    <t>AdditionalSkipByResID</t>
+  </si>
+  <si>
+    <t>skipbyResIDPattern</t>
+  </si>
+  <si>
+    <t>simpleBoxSkip</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IS1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>FileNotinSP</t>
+  </si>
+  <si>
+    <t>IS2_1</t>
+  </si>
+  <si>
+    <t>is1resptype</t>
+  </si>
+  <si>
+    <t>resid=4</t>
+  </si>
+  <si>
+    <t>IS2_2</t>
+  </si>
+  <si>
+    <t>op1proxy</t>
+  </si>
+  <si>
+    <t>IS2A_1</t>
+  </si>
+  <si>
+    <t>is1reasnprx1</t>
+  </si>
+  <si>
+    <t>resid=4 or IS2_1=1</t>
+  </si>
+  <si>
+    <t>IS2A_2</t>
+  </si>
+  <si>
+    <t>is1reasnprx2</t>
+  </si>
+  <si>
+    <t>IS2A_3</t>
+  </si>
+  <si>
+    <t>is1reasnprx3</t>
+  </si>
+  <si>
+    <t>IS2A_4</t>
+  </si>
+  <si>
+    <t>is1reasnprx4</t>
+  </si>
+  <si>
+    <t>IS2A_5</t>
+  </si>
+  <si>
+    <t>is1reasnprx5</t>
+  </si>
+  <si>
+    <t>IS2A_6</t>
+  </si>
+  <si>
+    <t>is1reasnprx6</t>
+  </si>
+  <si>
+    <t>IS2B</t>
+  </si>
+  <si>
+    <t>BOX IS2C</t>
+  </si>
+  <si>
+    <t>IS2C</t>
+  </si>
+  <si>
+    <t>IS2D</t>
+  </si>
+  <si>
+    <t>IS3</t>
+  </si>
+  <si>
+    <t>IS3A</t>
+  </si>
+  <si>
+    <t>IS3B</t>
+  </si>
+  <si>
+    <t>IS3C</t>
+  </si>
+  <si>
+    <t>IS4</t>
+  </si>
+  <si>
+    <t>r1dgender</t>
+  </si>
+  <si>
+    <t>BOX IS4A</t>
+  </si>
+  <si>
+    <t>IS4A</t>
+  </si>
+  <si>
+    <t>IS5_1</t>
+  </si>
+  <si>
+    <t>r1dbirthmth</t>
+  </si>
+  <si>
+    <t>IS5_2</t>
+  </si>
+  <si>
+    <t>r1dbirthyr</t>
+  </si>
+  <si>
+    <t>IS6_1</t>
+  </si>
+  <si>
+    <t>IS6_2</t>
+  </si>
+  <si>
+    <t>IS7_1</t>
+  </si>
+  <si>
+    <t>r1dintvwrage</t>
+  </si>
+  <si>
+    <t>IS7_2</t>
+  </si>
+  <si>
+    <t>r1d2intvrage</t>
+  </si>
+  <si>
+    <t>BOX IS8</t>
+  </si>
+  <si>
+    <t>IS8A</t>
+  </si>
+  <si>
+    <t>IS8B</t>
+  </si>
+  <si>
+    <t>IS8C</t>
+  </si>
+  <si>
+    <t>IS9_1</t>
+  </si>
+  <si>
+    <t>is1prxyrelat</t>
+  </si>
+  <si>
+    <t>IS9_2</t>
+  </si>
+  <si>
+    <t>op1relatnshp</t>
+  </si>
+  <si>
+    <t>IS9A</t>
+  </si>
+  <si>
+    <t>IS10_1</t>
+  </si>
+  <si>
+    <t>is1prxygendr</t>
+  </si>
+  <si>
+    <t>IS10_2</t>
+  </si>
+  <si>
+    <t>op1gender</t>
+  </si>
+  <si>
+    <t>BOX IS11</t>
+  </si>
+  <si>
+    <t>IS11</t>
+  </si>
+  <si>
+    <t>is1famrrutin</t>
+  </si>
+  <si>
+    <t>Total number of variables available in public file in HC section: 4</t>
+  </si>
+  <si>
+    <t>skipped only by r1dresid: 1</t>
+  </si>
+  <si>
+    <t>skipped by r1dresid and prior variables: 0</t>
+  </si>
+  <si>
+    <t>Remaining box: 3</t>
+  </si>
+  <si>
+    <t>Remaining others: 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -278,6 +298,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -559,14 +588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="B21:I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,26 +626,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -627,23 +653,23 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -656,15 +682,11 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -677,23 +699,23 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -706,23 +728,23 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -735,23 +757,23 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -764,23 +786,23 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -793,23 +815,23 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -822,175 +844,135 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="I13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
       <c r="I15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="I16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
       <c r="I17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
       <c r="I18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1003,53 +985,39 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="I19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1062,15 +1030,11 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1083,15 +1047,11 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
       <c r="I23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1104,15 +1064,11 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
       <c r="I24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1125,15 +1081,11 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
       <c r="I25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1146,15 +1098,11 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
       <c r="I26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1167,91 +1115,67 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
       <c r="I27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
       <c r="I28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
       <c r="I29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
       <c r="I30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
       <c r="I31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1264,23 +1188,23 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1293,34 +1217,25 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
       <c r="I33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
       <c r="I34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1333,23 +1248,23 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1362,34 +1277,25 @@
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
       <c r="I36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C37"/>
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
       <c r="I37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1402,16 +1308,16 @@
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
@@ -1420,45 +1326,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>